--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>Length of flexible hoses (m)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.695187398624672</v>
+        <v>23.518190818431631</v>
       </c>
       <c r="C2" s="0">
-        <v>16.447519312729341</v>
+        <v>16.313677188797023</v>
       </c>
       <c r="D2" s="0">
-        <v>0.6941291088368432</v>
+        <v>0.69366208118405515</v>
       </c>
       <c r="E2" s="0">
-        <v>20.46083548462812</v>
+        <v>20.117736353437401</v>
       </c>
       <c r="F2" s="0">
-        <v>14.521037352230868</v>
+        <v>14.450832441989993</v>
       </c>
       <c r="G2" s="0">
-        <v>0.70969914024968717</v>
+        <v>0.71831304417710307</v>
       </c>
       <c r="H2" s="0">
-        <v>241.5</v>
+        <v>240.08639235188315</v>
       </c>
       <c r="I2" s="0">
-        <v>206.5</v>
+        <v>203.93905394424235</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B3" s="0">
-        <v>24.79410103955761</v>
+        <v>24.667259032943228</v>
       </c>
       <c r="C3" s="0">
-        <v>16.328156635737098</v>
+        <v>16.243409965088915</v>
       </c>
       <c r="D3" s="0">
-        <v>0.6585500563092177</v>
+        <v>0.65850080640884234</v>
       </c>
       <c r="E3" s="0">
-        <v>21.693245431089132</v>
+        <v>21.176550301317771</v>
       </c>
       <c r="F3" s="0">
-        <v>14.703051586730998</v>
+        <v>14.487590440684604</v>
       </c>
       <c r="G3" s="0">
-        <v>0.67777095102882523</v>
+        <v>0.68413364001893517</v>
       </c>
       <c r="H3" s="0">
-        <v>250.5</v>
+        <v>249.5</v>
       </c>
       <c r="I3" s="0">
-        <v>216</v>
+        <v>212.53414638562771</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="B4" s="0">
-        <v>26.033223520880867</v>
+        <v>25.690773689545637</v>
       </c>
       <c r="C4" s="0">
-        <v>16.258290508110267</v>
+        <v>16.112606431789658</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62452083565716443</v>
+        <v>0.62717482262304813</v>
       </c>
       <c r="E4" s="0">
-        <v>22.570036345155163</v>
+        <v>22.175560484637465</v>
       </c>
       <c r="F4" s="0">
-        <v>14.600197344795545</v>
+        <v>14.423511654052708</v>
       </c>
       <c r="G4" s="0">
-        <v>0.64688408656149965</v>
+        <v>0.65042377007989793</v>
       </c>
       <c r="H4" s="0">
-        <v>259.5</v>
+        <v>257</v>
       </c>
       <c r="I4" s="0">
-        <v>224</v>
+        <v>221.52591590781202</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>27.13203124467416</v>
+        <v>26.69550419170643</v>
       </c>
       <c r="C5" s="0">
-        <v>16.230348921755922</v>
+        <v>15.922885030023261</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5981988143604926</v>
+        <v>0.59646316906687491</v>
       </c>
       <c r="E5" s="0">
-        <v>23.645968230560872</v>
+        <v>23.23049363243004</v>
       </c>
       <c r="F5" s="0">
-        <v>14.642363881010715</v>
+        <v>14.50759515179611</v>
       </c>
       <c r="G5" s="0">
-        <v>0.61923300150959415</v>
+        <v>0.62450653788705279</v>
       </c>
       <c r="H5" s="0">
-        <v>266.5</v>
+        <v>263.98264657932822</v>
       </c>
       <c r="I5" s="0">
-        <v>231.5</v>
+        <v>228.90607660057663</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>11.666666666666668</v>
       </c>
       <c r="B6" s="0">
-        <v>28.238028736196942</v>
+        <v>27.748259603239752</v>
       </c>
       <c r="C6" s="0">
-        <v>16.190496661733746</v>
+        <v>15.843139341030318</v>
       </c>
       <c r="D6" s="0">
-        <v>0.57335789310887497</v>
+        <v>0.57095974910010394</v>
       </c>
       <c r="E6" s="0">
-        <v>24.733533317056335</v>
+        <v>24.24245742441455</v>
       </c>
       <c r="F6" s="0">
-        <v>14.694667243613475</v>
+        <v>14.497497842730423</v>
       </c>
       <c r="G6" s="0">
-        <v>0.59411920873755542</v>
+        <v>0.59802096746718469</v>
       </c>
       <c r="H6" s="0">
-        <v>274</v>
+        <v>271.04818470918156</v>
       </c>
       <c r="I6" s="0">
-        <v>238.5</v>
+        <v>236.05115678374415</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>13.333333333333334</v>
       </c>
       <c r="B7" s="0">
-        <v>29.140327752596281</v>
+        <v>28.763949451782238</v>
       </c>
       <c r="C7" s="0">
-        <v>16.100242029118647</v>
+        <v>15.878845129236668</v>
       </c>
       <c r="D7" s="0">
-        <v>0.5525072389648803</v>
+        <v>0.55203980788016582</v>
       </c>
       <c r="E7" s="0">
-        <v>25.693508105716877</v>
+        <v>25.231831871475844</v>
       </c>
       <c r="F7" s="0">
-        <v>14.685573185015581</v>
+        <v>14.5266401395687</v>
       </c>
       <c r="G7" s="0">
-        <v>0.57156746072164433</v>
+        <v>0.57572673334078528</v>
       </c>
       <c r="H7" s="0">
-        <v>280</v>
+        <v>277.48083377286093</v>
       </c>
       <c r="I7" s="0">
-        <v>245</v>
+        <v>241.98644049420477</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="0">
-        <v>30.247269804609715</v>
+        <v>29.796241803160978</v>
       </c>
       <c r="C8" s="0">
-        <v>16.232457689251394</v>
+        <v>15.978251636897967</v>
       </c>
       <c r="D8" s="0">
-        <v>0.53665860734239068</v>
+        <v>0.53625056953333261</v>
       </c>
       <c r="E8" s="0">
-        <v>26.644731442503236</v>
+        <v>26.27242056255076</v>
       </c>
       <c r="F8" s="0">
-        <v>14.645650248485969</v>
+        <v>14.540460984997196</v>
       </c>
       <c r="G8" s="0">
-        <v>0.54966402195082631</v>
+        <v>0.5534496126985522</v>
       </c>
       <c r="H8" s="0">
-        <v>286.5</v>
+        <v>284.01641410915238</v>
       </c>
       <c r="I8" s="0">
-        <v>251</v>
+        <v>248.54085561391702</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>16.666666666666664</v>
       </c>
       <c r="B9" s="0">
-        <v>31.1528746409078</v>
+        <v>30.796745169905289</v>
       </c>
       <c r="C9" s="0">
-        <v>16.259300943121087</v>
+        <v>16.095177334698509</v>
       </c>
       <c r="D9" s="0">
-        <v>0.52191976280001129</v>
+        <v>0.52262592185965107</v>
       </c>
       <c r="E9" s="0">
-        <v>27.860493532292359</v>
+        <v>27.303190336832007</v>
       </c>
       <c r="F9" s="0">
-        <v>14.835148073204561</v>
+        <v>14.60929282740797</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53247972998071746</v>
+        <v>0.53507640122553857</v>
       </c>
       <c r="H9" s="0">
-        <v>291.5</v>
+        <v>289.91227166551533</v>
       </c>
       <c r="I9" s="0">
-        <v>257.5</v>
+        <v>254.42495275062311</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>18.333333333333336</v>
       </c>
       <c r="B10" s="0">
-        <v>32.102265832078196</v>
+        <v>31.832703045196293</v>
       </c>
       <c r="C10" s="0">
-        <v>16.361320656325312</v>
+        <v>16.291091878077314</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50966248743651787</v>
+        <v>0.5117721814244649</v>
       </c>
       <c r="E10" s="0">
-        <v>28.899129178322127</v>
+        <v>28.32615989190354</v>
       </c>
       <c r="F10" s="0">
-        <v>14.856879689357193</v>
+        <v>14.587295487609936</v>
       </c>
       <c r="G10" s="0">
-        <v>0.51409437279866776</v>
+        <v>0.51497610488950951</v>
       </c>
       <c r="H10" s="0">
-        <v>297</v>
+        <v>295.57374392658983</v>
       </c>
       <c r="I10" s="0">
-        <v>263</v>
+        <v>259.97626938483626</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="0">
-        <v>33.098136840673291</v>
+        <v>32.807420928529716</v>
       </c>
       <c r="C11" s="0">
-        <v>16.487995235491564</v>
+        <v>16.291181932318644</v>
       </c>
       <c r="D11" s="0">
-        <v>0.4981547848104238</v>
+        <v>0.49657002809847944</v>
       </c>
       <c r="E11" s="0">
-        <v>29.944112402738824</v>
+        <v>29.344262227256216</v>
       </c>
       <c r="F11" s="0">
-        <v>14.895251916273288</v>
+        <v>14.583801195120969</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49743507892092009</v>
+        <v>0.49698987427855335</v>
       </c>
       <c r="H11" s="0">
-        <v>302.5</v>
+        <v>299.06489935018368</v>
       </c>
       <c r="I11" s="0">
-        <v>269</v>
+        <v>265.58113131378332</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
   <si>
     <t>Length of flexible hoses (m)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="23" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.518190818431631</v>
+        <v>23.446627699832487</v>
       </c>
       <c r="C2" s="0">
-        <v>16.313677188797023</v>
+        <v>16.211931812163236</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69366208118405515</v>
+        <v>0.69143981043717695</v>
       </c>
       <c r="E2" s="0">
-        <v>20.117736353437401</v>
+        <v>20.091462616439824</v>
       </c>
       <c r="F2" s="0">
-        <v>14.450832441989993</v>
+        <v>14.459844681372905</v>
       </c>
       <c r="G2" s="0">
-        <v>0.71831304417710307</v>
+        <v>0.7197009474830941</v>
       </c>
       <c r="H2" s="0">
-        <v>240.08639235188315</v>
+        <v>238.05961127363659</v>
       </c>
       <c r="I2" s="0">
-        <v>203.93905394424235</v>
+        <v>203.39305950743812</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B3" s="0">
-        <v>24.667259032943228</v>
+        <v>24.670569426468859</v>
       </c>
       <c r="C3" s="0">
-        <v>16.243409965088915</v>
+        <v>16.248272725494196</v>
       </c>
       <c r="D3" s="0">
-        <v>0.65850080640884234</v>
+        <v>0.65860955394331322</v>
       </c>
       <c r="E3" s="0">
-        <v>21.176550301317771</v>
+        <v>21.085724032782601</v>
       </c>
       <c r="F3" s="0">
-        <v>14.487590440684604</v>
+        <v>14.456768012442033</v>
       </c>
       <c r="G3" s="0">
-        <v>0.68413364001893517</v>
+        <v>0.68561876224718044</v>
       </c>
       <c r="H3" s="0">
-        <v>249.5</v>
+        <v>249.40000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>212.53414638562771</v>
+        <v>211.936073405657</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="B4" s="0">
-        <v>25.690773689545637</v>
+        <v>25.69338125901632</v>
       </c>
       <c r="C4" s="0">
-        <v>16.112606431789658</v>
+        <v>16.128091803773469</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62717482262304813</v>
+        <v>0.62771387078973107</v>
       </c>
       <c r="E4" s="0">
-        <v>22.175560484637465</v>
+        <v>22.094316580784898</v>
       </c>
       <c r="F4" s="0">
-        <v>14.423511654052708</v>
+        <v>14.430354149205554</v>
       </c>
       <c r="G4" s="0">
-        <v>0.65042377007989793</v>
+        <v>0.6531251644033842</v>
       </c>
       <c r="H4" s="0">
         <v>257</v>
       </c>
       <c r="I4" s="0">
-        <v>221.52591590781202</v>
+        <v>220.95880804226624</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>26.69550419170643</v>
+        <v>26.692537306972053</v>
       </c>
       <c r="C5" s="0">
-        <v>15.922885030023261</v>
+        <v>15.922876172484475</v>
       </c>
       <c r="D5" s="0">
-        <v>0.59646316906687491</v>
+        <v>0.59652913431820676</v>
       </c>
       <c r="E5" s="0">
-        <v>23.23049363243004</v>
+        <v>23.153520192159124</v>
       </c>
       <c r="F5" s="0">
-        <v>14.50759515179611</v>
+        <v>14.512889209453039</v>
       </c>
       <c r="G5" s="0">
-        <v>0.62450653788705279</v>
+        <v>0.62681134829630736</v>
       </c>
       <c r="H5" s="0">
-        <v>263.98264657932822</v>
+        <v>264.07263070185047</v>
       </c>
       <c r="I5" s="0">
-        <v>228.90607660057663</v>
+        <v>227.97141375856029</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>11.666666666666668</v>
       </c>
       <c r="B6" s="0">
-        <v>27.748259603239752</v>
+        <v>27.745431254537291</v>
       </c>
       <c r="C6" s="0">
-        <v>15.843139341030318</v>
+        <v>15.893243340180691</v>
       </c>
       <c r="D6" s="0">
-        <v>0.57095974910010394</v>
+        <v>0.57282379914644943</v>
       </c>
       <c r="E6" s="0">
-        <v>24.24245742441455</v>
+        <v>24.170889899527786</v>
       </c>
       <c r="F6" s="0">
-        <v>14.497497842730423</v>
+        <v>14.461485154711315</v>
       </c>
       <c r="G6" s="0">
-        <v>0.59802096746718469</v>
+        <v>0.59830172636688239</v>
       </c>
       <c r="H6" s="0">
-        <v>271.04818470918156</v>
+        <v>270.94518557610576</v>
       </c>
       <c r="I6" s="0">
-        <v>236.05115678374415</v>
+        <v>235.48436296417316</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>13.333333333333334</v>
       </c>
       <c r="B7" s="0">
-        <v>28.763949451782238</v>
+        <v>28.771038541399616</v>
       </c>
       <c r="C7" s="0">
-        <v>15.878845129236668</v>
+        <v>15.889493262134662</v>
       </c>
       <c r="D7" s="0">
-        <v>0.55203980788016582</v>
+        <v>0.55227388609106809</v>
       </c>
       <c r="E7" s="0">
-        <v>25.231831871475844</v>
+        <v>25.158199191614735</v>
       </c>
       <c r="F7" s="0">
-        <v>14.5266401395687</v>
+        <v>14.500051875992595</v>
       </c>
       <c r="G7" s="0">
-        <v>0.57572673334078528</v>
+        <v>0.57635491974423525</v>
       </c>
       <c r="H7" s="0">
-        <v>277.48083377286093</v>
+        <v>277.5</v>
       </c>
       <c r="I7" s="0">
-        <v>241.98644049420477</v>
+        <v>241.51577422322197</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="0">
-        <v>29.796241803160978</v>
+        <v>29.752882228337985</v>
       </c>
       <c r="C8" s="0">
-        <v>15.978251636897967</v>
+        <v>15.941891619557278</v>
       </c>
       <c r="D8" s="0">
-        <v>0.53625056953333261</v>
+        <v>0.53580999303568322</v>
       </c>
       <c r="E8" s="0">
-        <v>26.27242056255076</v>
+        <v>26.212935977384273</v>
       </c>
       <c r="F8" s="0">
-        <v>14.540460984997196</v>
+        <v>14.518262685486631</v>
       </c>
       <c r="G8" s="0">
-        <v>0.5534496126985522</v>
+        <v>0.55385870159727812</v>
       </c>
       <c r="H8" s="0">
-        <v>284.01641410915238</v>
+        <v>283.43155030234476</v>
       </c>
       <c r="I8" s="0">
-        <v>248.54085561391702</v>
+        <v>247.93590219189207</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>16.666666666666664</v>
       </c>
       <c r="B9" s="0">
-        <v>30.796745169905289</v>
+        <v>30.800201948585279</v>
       </c>
       <c r="C9" s="0">
-        <v>16.095177334698509</v>
+        <v>16.154209815789716</v>
       </c>
       <c r="D9" s="0">
-        <v>0.52262592185965107</v>
+        <v>0.52448389276005103</v>
       </c>
       <c r="E9" s="0">
-        <v>27.303190336832007</v>
+        <v>27.25983652119163</v>
       </c>
       <c r="F9" s="0">
-        <v>14.60929282740797</v>
+        <v>14.584745279883048</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53507640122553857</v>
+        <v>0.53502687987673569</v>
       </c>
       <c r="H9" s="0">
-        <v>289.91227166551533</v>
+        <v>289.95565035253838</v>
       </c>
       <c r="I9" s="0">
-        <v>254.42495275062311</v>
+        <v>254.11363347712773</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>18.333333333333336</v>
       </c>
       <c r="B10" s="0">
-        <v>31.832703045196293</v>
+        <v>31.787391766223934</v>
       </c>
       <c r="C10" s="0">
-        <v>16.291091878077314</v>
+        <v>16.304214327248207</v>
       </c>
       <c r="D10" s="0">
-        <v>0.5117721814244649</v>
+        <v>0.5129145054477996</v>
       </c>
       <c r="E10" s="0">
-        <v>28.32615989190354</v>
+        <v>28.258237521751678</v>
       </c>
       <c r="F10" s="0">
-        <v>14.587295487609936</v>
+        <v>14.508019240226073</v>
       </c>
       <c r="G10" s="0">
-        <v>0.51497610488950951</v>
+        <v>0.51340849651570009</v>
       </c>
       <c r="H10" s="0">
-        <v>295.57374392658983</v>
+        <v>295.55016573885462</v>
       </c>
       <c r="I10" s="0">
-        <v>259.97626938483626</v>
+        <v>259.97782834162825</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="0">
-        <v>32.807420928529716</v>
+        <v>32.761535349240994</v>
       </c>
       <c r="C11" s="0">
-        <v>16.291181932318644</v>
+        <v>16.285958916767651</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49657002809847944</v>
+        <v>0.49710609539992018</v>
       </c>
       <c r="E11" s="0">
-        <v>29.344262227256216</v>
+        <v>29.314555093896566</v>
       </c>
       <c r="F11" s="0">
-        <v>14.583801195120969</v>
+        <v>14.528575377732631</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49698987427855335</v>
+        <v>0.49560961546905929</v>
       </c>
       <c r="H11" s="0">
-        <v>299.06489935018368</v>
+        <v>298.95595231901831</v>
       </c>
       <c r="I11" s="0">
-        <v>265.58113131378332</v>
+        <v>265.04471356156739</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
   <si>
     <t>Length of flexible hoses (m)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.446627699832487</v>
+        <v>25.309231116229277</v>
       </c>
       <c r="C2" s="0">
-        <v>16.211931812163236</v>
+        <v>17.671035819329344</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69143981043717695</v>
+        <v>0.69820516230530527</v>
       </c>
       <c r="E2" s="0">
-        <v>20.091462616439824</v>
+        <v>21.741340004370041</v>
       </c>
       <c r="F2" s="0">
-        <v>14.459844681372905</v>
+        <v>15.427153238096956</v>
       </c>
       <c r="G2" s="0">
-        <v>0.7197009474830941</v>
+        <v>0.70957692741091738</v>
       </c>
       <c r="H2" s="0">
-        <v>238.05961127363659</v>
+        <v>249</v>
       </c>
       <c r="I2" s="0">
-        <v>203.39305950743812</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B3" s="0">
-        <v>24.670569426468859</v>
+        <v>26.402858765354175</v>
       </c>
       <c r="C3" s="0">
-        <v>16.248272725494196</v>
+        <v>17.715786091609889</v>
       </c>
       <c r="D3" s="0">
-        <v>0.65860955394331322</v>
+        <v>0.67097984536646238</v>
       </c>
       <c r="E3" s="0">
-        <v>21.085724032782601</v>
+        <v>22.434010691663826</v>
       </c>
       <c r="F3" s="0">
-        <v>14.456768012442033</v>
+        <v>15.101028473152866</v>
       </c>
       <c r="G3" s="0">
-        <v>0.68561876224718044</v>
+        <v>0.67313101882242588</v>
       </c>
       <c r="H3" s="0">
-        <v>249.40000000000001</v>
+        <v>261</v>
       </c>
       <c r="I3" s="0">
-        <v>211.936073405657</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="B4" s="0">
-        <v>25.69338125901632</v>
+        <v>27.98950117706573</v>
       </c>
       <c r="C4" s="0">
-        <v>16.128091803773469</v>
+        <v>17.852843882158023</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62771387078973107</v>
+        <v>0.63784073068034652</v>
       </c>
       <c r="E4" s="0">
-        <v>22.094316580784898</v>
+        <v>23.875501840196797</v>
       </c>
       <c r="F4" s="0">
-        <v>14.430354149205554</v>
+        <v>15.338190671262065</v>
       </c>
       <c r="G4" s="0">
-        <v>0.6531251644033842</v>
+        <v>0.6424238021853298</v>
       </c>
       <c r="H4" s="0">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I4" s="0">
-        <v>220.95880804226624</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>26.692537306972053</v>
+        <v>28.886007977661873</v>
       </c>
       <c r="C5" s="0">
-        <v>15.922876172484475</v>
+        <v>17.884119642693612</v>
       </c>
       <c r="D5" s="0">
-        <v>0.59652913431820676</v>
+        <v>0.61912742170963042</v>
       </c>
       <c r="E5" s="0">
-        <v>23.153520192159124</v>
+        <v>25.048577715997919</v>
       </c>
       <c r="F5" s="0">
-        <v>14.512889209453039</v>
+        <v>15.476502227752459</v>
       </c>
       <c r="G5" s="0">
-        <v>0.62681134829630736</v>
+        <v>0.61785952093671137</v>
       </c>
       <c r="H5" s="0">
-        <v>264.07263070185047</v>
+        <v>281</v>
       </c>
       <c r="I5" s="0">
-        <v>227.97141375856029</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>11.666666666666668</v>
       </c>
       <c r="B6" s="0">
-        <v>27.745431254537291</v>
+        <v>29.973145396937156</v>
       </c>
       <c r="C6" s="0">
-        <v>15.893243340180691</v>
+        <v>17.836458765460623</v>
       </c>
       <c r="D6" s="0">
-        <v>0.57282379914644943</v>
+        <v>0.59508131459847602</v>
       </c>
       <c r="E6" s="0">
-        <v>24.170889899527786</v>
+        <v>25.618903766025024</v>
       </c>
       <c r="F6" s="0">
-        <v>14.461485154711315</v>
+        <v>15.079707400548468</v>
       </c>
       <c r="G6" s="0">
-        <v>0.59830172636688239</v>
+        <v>0.58861641927656161</v>
       </c>
       <c r="H6" s="0">
-        <v>270.94518557610576</v>
+        <v>291</v>
       </c>
       <c r="I6" s="0">
-        <v>235.48436296417316</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>13.333333333333334</v>
       </c>
       <c r="B7" s="0">
-        <v>28.771038541399616</v>
+        <v>31.107228719413865</v>
       </c>
       <c r="C7" s="0">
-        <v>15.889493262134662</v>
+        <v>17.853911498814266</v>
       </c>
       <c r="D7" s="0">
-        <v>0.55227388609106809</v>
+        <v>0.57394735030419897</v>
       </c>
       <c r="E7" s="0">
-        <v>25.158199191614735</v>
+        <v>26.903348619915203</v>
       </c>
       <c r="F7" s="0">
-        <v>14.500051875992595</v>
+        <v>15.320923573329337</v>
       </c>
       <c r="G7" s="0">
-        <v>0.57635491974423525</v>
+        <v>0.56948017102926818</v>
       </c>
       <c r="H7" s="0">
-        <v>277.5</v>
+        <v>299</v>
       </c>
       <c r="I7" s="0">
-        <v>241.51577422322197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
@@ -310,86 +310,86 @@
         <v>15</v>
       </c>
       <c r="B8" s="0">
-        <v>29.752882228337985</v>
+        <v>32.254985733011118</v>
       </c>
       <c r="C8" s="0">
-        <v>15.941891619557278</v>
+        <v>17.746524369940449</v>
       </c>
       <c r="D8" s="0">
-        <v>0.53580999303568322</v>
+        <v>0.5501947673093498</v>
       </c>
       <c r="E8" s="0">
-        <v>26.212935977384273</v>
+        <v>28.298967178708544</v>
       </c>
       <c r="F8" s="0">
-        <v>14.518262685486631</v>
+        <v>15.616516423647758</v>
       </c>
       <c r="G8" s="0">
-        <v>0.55385870159727812</v>
+        <v>0.55184050799554429</v>
       </c>
       <c r="H8" s="0">
-        <v>283.43155030234476</v>
+        <v>308</v>
       </c>
       <c r="I8" s="0">
-        <v>247.93590219189207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>16.666666666666664</v>
+        <v>18.333333333333336</v>
       </c>
       <c r="B9" s="0">
-        <v>30.800201948585279</v>
+        <v>33.685109201584687</v>
       </c>
       <c r="C9" s="0">
-        <v>16.154209815789716</v>
+        <v>17.785023251562318</v>
       </c>
       <c r="D9" s="0">
-        <v>0.52448389276005103</v>
+        <v>0.52797879161174388</v>
       </c>
       <c r="E9" s="0">
-        <v>27.25983652119163</v>
+        <v>30.132290254195787</v>
       </c>
       <c r="F9" s="0">
-        <v>14.584745279883048</v>
+        <v>15.418877545649668</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53502687987673569</v>
+        <v>0.51170612706754537</v>
       </c>
       <c r="H9" s="0">
-        <v>289.95565035253838</v>
+        <v>321</v>
       </c>
       <c r="I9" s="0">
-        <v>254.11363347712773</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>18.333333333333336</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0">
-        <v>31.787391766223934</v>
+        <v>34.953292098841374</v>
       </c>
       <c r="C10" s="0">
-        <v>16.304214327248207</v>
+        <v>17.767381951044431</v>
       </c>
       <c r="D10" s="0">
-        <v>0.5129145054477996</v>
+        <v>0.50831784029960891</v>
       </c>
       <c r="E10" s="0">
-        <v>28.258237521751678</v>
+        <v>31.177113745966082</v>
       </c>
       <c r="F10" s="0">
-        <v>14.508019240226073</v>
+        <v>15.445880782691894</v>
       </c>
       <c r="G10" s="0">
-        <v>0.51340849651570009</v>
+        <v>0.49542369151122567</v>
       </c>
       <c r="H10" s="0">
-        <v>295.55016573885462</v>
+        <v>329</v>
       </c>
       <c r="I10" s="0">
-        <v>259.97782834162825</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">

--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Length of flexible hoses (m)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>25.309231116229277</v>
+        <v>23.719073423116885</v>
       </c>
       <c r="C2" s="0">
-        <v>17.671035819329344</v>
+        <v>16.400651092021075</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69820516230530527</v>
+        <v>0.69145412215119706</v>
       </c>
       <c r="E2" s="0">
-        <v>21.741340004370041</v>
+        <v>21.219838883106998</v>
       </c>
       <c r="F2" s="0">
-        <v>15.427153238096956</v>
+        <v>15.364052826364389</v>
       </c>
       <c r="G2" s="0">
-        <v>0.70957692741091738</v>
+        <v>0.72404191714177579</v>
       </c>
       <c r="H2" s="0">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="I2" s="0">
-        <v>185</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B3" s="0">
-        <v>26.402858765354175</v>
+        <v>25.009641843464983</v>
       </c>
       <c r="C3" s="0">
-        <v>17.715786091609889</v>
+        <v>16.457429892668891</v>
       </c>
       <c r="D3" s="0">
-        <v>0.67097984536646238</v>
+        <v>0.65804340564633934</v>
       </c>
       <c r="E3" s="0">
-        <v>22.434010691663826</v>
+        <v>22.472736591637485</v>
       </c>
       <c r="F3" s="0">
-        <v>15.101028473152866</v>
+        <v>15.440103734246339</v>
       </c>
       <c r="G3" s="0">
-        <v>0.67313101882242588</v>
+        <v>0.68705934728002294</v>
       </c>
       <c r="H3" s="0">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="I3" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="B4" s="0">
-        <v>27.98950117706573</v>
+        <v>26.006422696088226</v>
       </c>
       <c r="C4" s="0">
-        <v>17.852843882158023</v>
+        <v>16.389952336585843</v>
       </c>
       <c r="D4" s="0">
-        <v>0.63784073068034652</v>
+        <v>0.6302270992100405</v>
       </c>
       <c r="E4" s="0">
-        <v>23.875501840196797</v>
+        <v>23.180308782811931</v>
       </c>
       <c r="F4" s="0">
-        <v>15.338190671262065</v>
+        <v>15.188744381416281</v>
       </c>
       <c r="G4" s="0">
-        <v>0.6424238021853298</v>
+        <v>0.65524340179103435</v>
       </c>
       <c r="H4" s="0">
-        <v>272</v>
+        <v>237.5</v>
       </c>
       <c r="I4" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>28.886007977661873</v>
+        <v>27.031550082488675</v>
       </c>
       <c r="C5" s="0">
-        <v>17.884119642693612</v>
+        <v>16.34136219020867</v>
       </c>
       <c r="D5" s="0">
-        <v>0.61912742170963042</v>
+        <v>0.60452923122580304</v>
       </c>
       <c r="E5" s="0">
-        <v>25.048577715997919</v>
+        <v>24.269764332926869</v>
       </c>
       <c r="F5" s="0">
-        <v>15.476502227752459</v>
+        <v>15.247376752095644</v>
       </c>
       <c r="G5" s="0">
-        <v>0.61785952093671137</v>
+        <v>0.62824576880664129</v>
       </c>
       <c r="H5" s="0">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="I5" s="0">
-        <v>210</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>11.666666666666668</v>
       </c>
       <c r="B6" s="0">
-        <v>29.973145396937156</v>
+        <v>28.088721312609767</v>
       </c>
       <c r="C6" s="0">
-        <v>17.836458765460623</v>
+        <v>16.353690660982164</v>
       </c>
       <c r="D6" s="0">
-        <v>0.59508131459847602</v>
+        <v>0.5822155618611432</v>
       </c>
       <c r="E6" s="0">
-        <v>25.618903766025024</v>
+        <v>25.411963687603777</v>
       </c>
       <c r="F6" s="0">
-        <v>15.079707400548468</v>
+        <v>15.280473821173853</v>
       </c>
       <c r="G6" s="0">
-        <v>0.58861641927656161</v>
+        <v>0.60131023359787927</v>
       </c>
       <c r="H6" s="0">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="I6" s="0">
-        <v>216</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>13.333333333333334</v>
       </c>
       <c r="B7" s="0">
-        <v>31.107228719413865</v>
+        <v>29.181120840689157</v>
       </c>
       <c r="C7" s="0">
-        <v>17.853911498814266</v>
+        <v>16.338879713053931</v>
       </c>
       <c r="D7" s="0">
-        <v>0.57394735030419897</v>
+        <v>0.55991268472016864</v>
       </c>
       <c r="E7" s="0">
-        <v>26.903348619915203</v>
+        <v>26.575267604869079</v>
       </c>
       <c r="F7" s="0">
-        <v>15.320923573329337</v>
+        <v>15.399096810506128</v>
       </c>
       <c r="G7" s="0">
-        <v>0.56948017102926818</v>
+        <v>0.57945218236239804</v>
       </c>
       <c r="H7" s="0">
-        <v>299</v>
+        <v>258.5</v>
       </c>
       <c r="I7" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
@@ -310,86 +310,86 @@
         <v>15</v>
       </c>
       <c r="B8" s="0">
-        <v>32.254985733011118</v>
+        <v>30.262837690749702</v>
       </c>
       <c r="C8" s="0">
-        <v>17.746524369940449</v>
+        <v>16.376138598143829</v>
       </c>
       <c r="D8" s="0">
-        <v>0.5501947673093498</v>
+        <v>0.54113030527700468</v>
       </c>
       <c r="E8" s="0">
-        <v>28.298967178708544</v>
+        <v>27.457945904237658</v>
       </c>
       <c r="F8" s="0">
-        <v>15.616516423647758</v>
+        <v>15.265649653346042</v>
       </c>
       <c r="G8" s="0">
-        <v>0.55184050799554429</v>
+        <v>0.55596473627657828</v>
       </c>
       <c r="H8" s="0">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="I8" s="0">
-        <v>226</v>
+        <v>230.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>18.333333333333336</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="B9" s="0">
-        <v>33.685109201584687</v>
+        <v>31.023834898998732</v>
       </c>
       <c r="C9" s="0">
-        <v>17.785023251562318</v>
+        <v>16.209673096757516</v>
       </c>
       <c r="D9" s="0">
-        <v>0.52797879161174388</v>
+        <v>0.52249095411736701</v>
       </c>
       <c r="E9" s="0">
-        <v>30.132290254195787</v>
+        <v>28.361771424029445</v>
       </c>
       <c r="F9" s="0">
-        <v>15.418877545649668</v>
+        <v>15.243852644089003</v>
       </c>
       <c r="G9" s="0">
-        <v>0.51170612706754537</v>
+        <v>0.53747886252174237</v>
       </c>
       <c r="H9" s="0">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="I9" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>20</v>
+        <v>18.333333333333336</v>
       </c>
       <c r="B10" s="0">
-        <v>34.953292098841374</v>
+        <v>32.192039123608993</v>
       </c>
       <c r="C10" s="0">
-        <v>17.767381951044431</v>
+        <v>16.288651714949918</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50831784029960891</v>
+        <v>0.50598384440344912</v>
       </c>
       <c r="E10" s="0">
-        <v>31.177113745966082</v>
+        <v>29.640841367943622</v>
       </c>
       <c r="F10" s="0">
-        <v>15.445880782691894</v>
+        <v>15.489875233119628</v>
       </c>
       <c r="G10" s="0">
-        <v>0.49542369151122567</v>
+        <v>0.52258554475015095</v>
       </c>
       <c r="H10" s="0">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="I10" s="0">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="0">
-        <v>32.761535349240994</v>
+        <v>33.39462924544231</v>
       </c>
       <c r="C11" s="0">
-        <v>16.285958916767651</v>
+        <v>16.317367183436009</v>
       </c>
       <c r="D11" s="0">
-        <v>0.49710609539992018</v>
+        <v>0.48862249865112661</v>
       </c>
       <c r="E11" s="0">
-        <v>29.314555093896566</v>
+        <v>30.590676489596902</v>
       </c>
       <c r="F11" s="0">
-        <v>14.528575377732631</v>
+        <v>15.480958121910632</v>
       </c>
       <c r="G11" s="0">
-        <v>0.49560961546905929</v>
+        <v>0.50606785787085506</v>
       </c>
       <c r="H11" s="0">
-        <v>298.95595231901831</v>
+        <v>281.5</v>
       </c>
       <c r="I11" s="0">
-        <v>265.04471356156739</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -136,28 +136,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.719073423116885</v>
+        <v>25.603423448951439</v>
       </c>
       <c r="C2" s="0">
-        <v>16.400651092021075</v>
+        <v>16.190736754717673</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69145412215119706</v>
+        <v>0.63236608912862968</v>
       </c>
       <c r="E2" s="0">
-        <v>21.219838883106998</v>
+        <v>21.52706424336936</v>
       </c>
       <c r="F2" s="0">
-        <v>15.364052826364389</v>
+        <v>15.10978739599811</v>
       </c>
       <c r="G2" s="0">
-        <v>0.72404191714177579</v>
+        <v>0.70189725943016767</v>
       </c>
       <c r="H2" s="0">
-        <v>221</v>
+        <v>257.5</v>
       </c>
       <c r="I2" s="0">
-        <v>187.5</v>
+        <v>226.5</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B3" s="0">
-        <v>25.009641843464983</v>
+        <v>26.656642092203942</v>
       </c>
       <c r="C3" s="0">
-        <v>16.457429892668891</v>
+        <v>16.073301208224848</v>
       </c>
       <c r="D3" s="0">
-        <v>0.65804340564633934</v>
+        <v>0.60297546677590275</v>
       </c>
       <c r="E3" s="0">
-        <v>22.472736591637485</v>
+        <v>22.53843260815113</v>
       </c>
       <c r="F3" s="0">
-        <v>15.440103734246339</v>
+        <v>15.094749165498875</v>
       </c>
       <c r="G3" s="0">
-        <v>0.68705934728002294</v>
+        <v>0.66973375779644007</v>
       </c>
       <c r="H3" s="0">
-        <v>230</v>
+        <v>269.5</v>
       </c>
       <c r="I3" s="0">
-        <v>197</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="B4" s="0">
-        <v>26.006422696088226</v>
+        <v>27.803243624608427</v>
       </c>
       <c r="C4" s="0">
-        <v>16.389952336585843</v>
+        <v>16.159892658566807</v>
       </c>
       <c r="D4" s="0">
-        <v>0.6302270992100405</v>
+        <v>0.58122328735284023</v>
       </c>
       <c r="E4" s="0">
-        <v>23.180308782811931</v>
+        <v>23.596090828205494</v>
       </c>
       <c r="F4" s="0">
-        <v>15.188744381416281</v>
+        <v>15.152150412448231</v>
       </c>
       <c r="G4" s="0">
-        <v>0.65524340179103435</v>
+        <v>0.64214663872780864</v>
       </c>
       <c r="H4" s="0">
-        <v>237.5</v>
+        <v>280</v>
       </c>
       <c r="I4" s="0">
-        <v>204</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>27.031550082488675</v>
+        <v>28.583728265052901</v>
       </c>
       <c r="C5" s="0">
-        <v>16.34136219020867</v>
+        <v>15.938820537440163</v>
       </c>
       <c r="D5" s="0">
-        <v>0.60452923122580304</v>
+        <v>0.55761866995241893</v>
       </c>
       <c r="E5" s="0">
-        <v>24.269764332926869</v>
+        <v>24.679274840690113</v>
       </c>
       <c r="F5" s="0">
-        <v>15.247376752095644</v>
+        <v>15.234799655303451</v>
       </c>
       <c r="G5" s="0">
-        <v>0.62824576880664129</v>
+        <v>0.61731147911141127</v>
       </c>
       <c r="H5" s="0">
-        <v>245</v>
+        <v>289.5</v>
       </c>
       <c r="I5" s="0">
-        <v>211.5</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>11.666666666666668</v>
       </c>
       <c r="B6" s="0">
-        <v>28.088721312609767</v>
+        <v>29.83978691937951</v>
       </c>
       <c r="C6" s="0">
-        <v>16.353690660982164</v>
+        <v>16.209667250874858</v>
       </c>
       <c r="D6" s="0">
-        <v>0.5822155618611432</v>
+        <v>0.54322329092596355</v>
       </c>
       <c r="E6" s="0">
-        <v>25.411963687603777</v>
+        <v>25.455337708048816</v>
       </c>
       <c r="F6" s="0">
-        <v>15.280473821173853</v>
+        <v>15.032760238492855</v>
       </c>
       <c r="G6" s="0">
-        <v>0.60131023359787927</v>
+        <v>0.59055434309714905</v>
       </c>
       <c r="H6" s="0">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="I6" s="0">
-        <v>218.5</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>13.333333333333334</v>
       </c>
       <c r="B7" s="0">
-        <v>29.181120840689157</v>
+        <v>30.976874103525958</v>
       </c>
       <c r="C7" s="0">
-        <v>16.338879713053931</v>
+        <v>16.263276750099465</v>
       </c>
       <c r="D7" s="0">
-        <v>0.55991268472016864</v>
+        <v>0.52501348895782507</v>
       </c>
       <c r="E7" s="0">
-        <v>26.575267604869079</v>
+        <v>26.634861517978571</v>
       </c>
       <c r="F7" s="0">
-        <v>15.399096810506128</v>
+        <v>15.211843582363457</v>
       </c>
       <c r="G7" s="0">
-        <v>0.57945218236239804</v>
+        <v>0.57112531154312329</v>
       </c>
       <c r="H7" s="0">
-        <v>258.5</v>
+        <v>307.5</v>
       </c>
       <c r="I7" s="0">
-        <v>225</v>
+        <v>273.5</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>15</v>
       </c>
       <c r="B8" s="0">
-        <v>30.262837690749702</v>
+        <v>31.679985721596857</v>
       </c>
       <c r="C8" s="0">
-        <v>16.376138598143829</v>
+        <v>15.931014898434375</v>
       </c>
       <c r="D8" s="0">
-        <v>0.54113030527700468</v>
+        <v>0.50287317167488166</v>
       </c>
       <c r="E8" s="0">
-        <v>27.457945904237658</v>
+        <v>27.830410112127439</v>
       </c>
       <c r="F8" s="0">
-        <v>15.265649653346042</v>
+        <v>15.404591278285251</v>
       </c>
       <c r="G8" s="0">
-        <v>0.55596473627657828</v>
+        <v>0.55351650285500154</v>
       </c>
       <c r="H8" s="0">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="I8" s="0">
-        <v>230.5</v>
+        <v>281.5</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>16.666666666666664</v>
       </c>
       <c r="B9" s="0">
-        <v>31.023834898998732</v>
+        <v>32.893817835827981</v>
       </c>
       <c r="C9" s="0">
-        <v>16.209673096757516</v>
+        <v>16.102153727909759</v>
       </c>
       <c r="D9" s="0">
-        <v>0.52249095411736701</v>
+        <v>0.48951914941205993</v>
       </c>
       <c r="E9" s="0">
-        <v>28.361771424029445</v>
+        <v>28.735609657137196</v>
       </c>
       <c r="F9" s="0">
-        <v>15.243852644089003</v>
+        <v>15.323526806979519</v>
       </c>
       <c r="G9" s="0">
-        <v>0.53747886252174237</v>
+        <v>0.53325915092160026</v>
       </c>
       <c r="H9" s="0">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="I9" s="0">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>18.333333333333336</v>
       </c>
       <c r="B10" s="0">
-        <v>32.192039123608993</v>
+        <v>34.141784424067168</v>
       </c>
       <c r="C10" s="0">
-        <v>16.288651714949918</v>
+        <v>16.306848117772411</v>
       </c>
       <c r="D10" s="0">
-        <v>0.50598384440344912</v>
+        <v>0.477621436396787</v>
       </c>
       <c r="E10" s="0">
-        <v>29.640841367943622</v>
+        <v>29.644728774931963</v>
       </c>
       <c r="F10" s="0">
-        <v>15.489875233119628</v>
+        <v>15.284091722235457</v>
       </c>
       <c r="G10" s="0">
-        <v>0.52258554475015095</v>
+        <v>0.51557536040471108</v>
       </c>
       <c r="H10" s="0">
-        <v>276</v>
+        <v>331.5</v>
       </c>
       <c r="I10" s="0">
-        <v>242</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>20</v>
       </c>
       <c r="B11" s="0">
-        <v>33.39462924544231</v>
+        <v>34.902943652677102</v>
       </c>
       <c r="C11" s="0">
-        <v>16.317367183436009</v>
+        <v>16.086617324795494</v>
       </c>
       <c r="D11" s="0">
-        <v>0.48862249865112661</v>
+        <v>0.46089571942341401</v>
       </c>
       <c r="E11" s="0">
-        <v>30.590676489596902</v>
+        <v>30.945583760443384</v>
       </c>
       <c r="F11" s="0">
-        <v>15.480958121910632</v>
+        <v>15.53188159928167</v>
       </c>
       <c r="G11" s="0">
-        <v>0.50606785787085506</v>
+        <v>0.50190947178496959</v>
       </c>
       <c r="H11" s="0">
-        <v>281.5</v>
+        <v>338.5</v>
       </c>
       <c r="I11" s="0">
-        <v>247</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/hose_length_sweep_results.xlsx
+++ b/Graphs/hose_length_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="23" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
